--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>513330</t>
-  </si>
-  <si>
-    <t>华夏恒生互联网科技业ETF（QDII）</t>
-  </si>
-  <si>
-    <t>90.32</t>
-  </si>
-  <si>
-    <t>93.99</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>2.5470</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.96</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,461 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.55</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.12</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.96</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,705 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.55</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5470</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -609,25 +615,671 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>116.58</t>
+          <t>233.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>96.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9611</t>
+          <t>12.1498</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1116,7 +1768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1789,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1177,671 +1829,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>233.65</t>
+          <t>116.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>97.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.1498</t>
+          <t>2.9611</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.0260</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164906</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>110.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.7457</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4589</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159740</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4109</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012208</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2919</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>513580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2779</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012379</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2188</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159742</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2122</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>862001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1982</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>862011</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1982</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>862012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1982</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159741</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1931</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根恒生科技ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1163</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013127</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012380</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013128</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1856,96 +1862,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.55</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09999-网易公司.xlsx
+++ b/数据整理/stocks/港股/09999-网易公司.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>25.87</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>13.12</v>
+        <v>25.87</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.96</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.55</v>
       </c>
     </row>
@@ -549,6 +566,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.0911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>364.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>113.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2687</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7543</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7871</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1288,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1762,7 +2861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1856,7 +2955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
